--- a/public/BanksDataFormat.xlsx
+++ b/public/BanksDataFormat.xlsx
@@ -29,18 +29,12 @@
     <t>Bank Name</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
     <t>Website</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>Bank Type</t>
   </si>
   <si>
@@ -51,6 +45,12 @@
   </si>
   <si>
     <t>Contact Person Name</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>CBSA Code</t>
   </si>
 </sst>
 </file>
@@ -380,14 +380,14 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
@@ -405,22 +405,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/BanksDataFormat.xlsx
+++ b/public/BanksDataFormat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Bank Name</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>CBSA Code</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -377,49 +383,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="1" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/public/BanksDataFormat.xlsx
+++ b/public/BanksDataFormat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bank Name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>CBSA Name</t>
   </si>
 </sst>
 </file>
@@ -383,24 +386,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,6 +436,9 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
